--- a/natmiOut/OldD4/LR-pairs_lrc2p/Npnt-Itga8.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Npnt-Itga8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,15 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,15 +95,6 @@
   </si>
   <si>
     <t>Itga8</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7599691691189721</v>
+        <v>0.9696033333333333</v>
       </c>
       <c r="H2">
-        <v>0.7599691691189721</v>
+        <v>2.90881</v>
       </c>
       <c r="I2">
-        <v>0.400411342903406</v>
+        <v>0.3086976221779292</v>
       </c>
       <c r="J2">
-        <v>0.400411342903406</v>
+        <v>0.3860913613682198</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.559894782872871</v>
+        <v>1.253707</v>
       </c>
       <c r="N2">
-        <v>0.559894782872871</v>
+        <v>3.761121</v>
       </c>
       <c r="O2">
-        <v>0.03711339214353097</v>
+        <v>0.07760709912293902</v>
       </c>
       <c r="P2">
-        <v>0.03711339214353097</v>
+        <v>0.1037097015912075</v>
       </c>
       <c r="Q2">
-        <v>0.425502772933943</v>
+        <v>1.215598486223333</v>
       </c>
       <c r="R2">
-        <v>0.425502772933943</v>
+        <v>10.94038637601</v>
       </c>
       <c r="S2">
-        <v>0.01486062318789195</v>
+        <v>0.02395712696337813</v>
       </c>
       <c r="T2">
-        <v>0.01486062318789195</v>
+        <v>0.04004141987444113</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7599691691189721</v>
+        <v>0.9696033333333333</v>
       </c>
       <c r="H3">
-        <v>0.7599691691189721</v>
+        <v>2.90881</v>
       </c>
       <c r="I3">
-        <v>0.400411342903406</v>
+        <v>0.3086976221779292</v>
       </c>
       <c r="J3">
-        <v>0.400411342903406</v>
+        <v>0.3860913613682198</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.02981613596453</v>
+        <v>1.168375666666667</v>
       </c>
       <c r="N3">
-        <v>1.02981613596453</v>
+        <v>3.505127</v>
       </c>
       <c r="O3">
-        <v>0.06826277232603824</v>
+        <v>0.07232491018701337</v>
       </c>
       <c r="P3">
-        <v>0.06826277232603824</v>
+        <v>0.09665088552303537</v>
       </c>
       <c r="Q3">
-        <v>0.7826285131942742</v>
+        <v>1.132860940985555</v>
       </c>
       <c r="R3">
-        <v>0.7826285131942742</v>
+        <v>10.19574846887</v>
       </c>
       <c r="S3">
-        <v>0.02733318833737843</v>
+        <v>0.02232652779896331</v>
       </c>
       <c r="T3">
-        <v>0.02733318833737843</v>
+        <v>0.03731607196903269</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7599691691189721</v>
+        <v>0.9696033333333333</v>
       </c>
       <c r="H4">
-        <v>0.7599691691189721</v>
+        <v>2.90881</v>
       </c>
       <c r="I4">
-        <v>0.400411342903406</v>
+        <v>0.3086976221779292</v>
       </c>
       <c r="J4">
-        <v>0.400411342903406</v>
+        <v>0.3860913613682198</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.549410622398558</v>
+        <v>0.6422343333333334</v>
       </c>
       <c r="N4">
-        <v>0.549410622398558</v>
+        <v>1.926703</v>
       </c>
       <c r="O4">
-        <v>0.03641843521433373</v>
+        <v>0.03975565548182683</v>
       </c>
       <c r="P4">
-        <v>0.03641843521433373</v>
+        <v>0.05312719085211144</v>
       </c>
       <c r="Q4">
-        <v>0.4175351342093694</v>
+        <v>0.6227125503811111</v>
       </c>
       <c r="R4">
-        <v>0.4175351342093694</v>
+        <v>5.60441295343</v>
       </c>
       <c r="S4">
-        <v>0.01458235455061206</v>
+        <v>0.0122724763153649</v>
       </c>
       <c r="T4">
-        <v>0.01458235455061206</v>
+        <v>0.02051194944176094</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7599691691189721</v>
+        <v>0.9696033333333333</v>
       </c>
       <c r="H5">
-        <v>0.7599691691189721</v>
+        <v>2.90881</v>
       </c>
       <c r="I5">
-        <v>0.400411342903406</v>
+        <v>0.3086976221779292</v>
       </c>
       <c r="J5">
-        <v>0.400411342903406</v>
+        <v>0.3860913613682198</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.8322439677197691</v>
+        <v>0.8924576666666667</v>
       </c>
       <c r="N5">
-        <v>0.8322439677197691</v>
+        <v>2.677373</v>
       </c>
       <c r="O5">
-        <v>0.05516643069004122</v>
+        <v>0.05524500589055249</v>
       </c>
       <c r="P5">
-        <v>0.05516643069004122</v>
+        <v>0.07382627543180768</v>
       </c>
       <c r="Q5">
-        <v>0.6324797566522695</v>
+        <v>0.8653299284588889</v>
       </c>
       <c r="R5">
-        <v>0.6324797566522695</v>
+        <v>7.787969356130001</v>
       </c>
       <c r="S5">
-        <v>0.02208926459578708</v>
+        <v>0.01705400195561924</v>
       </c>
       <c r="T5">
-        <v>0.02208926459578708</v>
+        <v>0.02850368718621179</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.7599691691189721</v>
+        <v>0.9696033333333333</v>
       </c>
       <c r="H6">
-        <v>0.7599691691189721</v>
+        <v>2.90881</v>
       </c>
       <c r="I6">
-        <v>0.400411342903406</v>
+        <v>0.3086976221779292</v>
       </c>
       <c r="J6">
-        <v>0.400411342903406</v>
+        <v>0.3860913613682198</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.1146923945513</v>
+        <v>12.1977655</v>
       </c>
       <c r="N6">
-        <v>12.1146923945513</v>
+        <v>24.395531</v>
       </c>
       <c r="O6">
-        <v>0.8030389696260558</v>
+        <v>0.7550673293176682</v>
       </c>
       <c r="P6">
-        <v>0.8030389696260558</v>
+        <v>0.6726859466018379</v>
       </c>
       <c r="Q6">
-        <v>9.206792713219082</v>
+        <v>11.82699408801833</v>
       </c>
       <c r="R6">
-        <v>9.206792713219082</v>
+        <v>70.96196452810999</v>
       </c>
       <c r="S6">
-        <v>0.3215459122317365</v>
+        <v>0.2330874891446036</v>
       </c>
       <c r="T6">
-        <v>0.3215459122317365</v>
+        <v>0.2597182328967732</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -847,49 +847,49 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>1.13800196129005</v>
+        <v>0.1353703333333333</v>
       </c>
       <c r="H7">
-        <v>1.13800196129005</v>
+        <v>0.406111</v>
       </c>
       <c r="I7">
-        <v>0.599588657096594</v>
+        <v>0.04309855234281408</v>
       </c>
       <c r="J7">
-        <v>0.599588657096594</v>
+        <v>0.05390381250635453</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.559894782872871</v>
+        <v>1.253707</v>
       </c>
       <c r="N7">
-        <v>0.559894782872871</v>
+        <v>3.761121</v>
       </c>
       <c r="O7">
-        <v>0.03711339214353097</v>
+        <v>0.07760709912293902</v>
       </c>
       <c r="P7">
-        <v>0.03711339214353097</v>
+        <v>0.1037097015912075</v>
       </c>
       <c r="Q7">
-        <v>0.6371613610253939</v>
+        <v>0.1697147344923333</v>
       </c>
       <c r="R7">
-        <v>0.6371613610253939</v>
+        <v>1.527432610431</v>
       </c>
       <c r="S7">
-        <v>0.02225276895563901</v>
+        <v>0.003344753623723948</v>
       </c>
       <c r="T7">
-        <v>0.02225276895563901</v>
+        <v>0.005590348309662426</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>1.13800196129005</v>
+        <v>0.1353703333333333</v>
       </c>
       <c r="H8">
-        <v>1.13800196129005</v>
+        <v>0.406111</v>
       </c>
       <c r="I8">
-        <v>0.599588657096594</v>
+        <v>0.04309855234281408</v>
       </c>
       <c r="J8">
-        <v>0.599588657096594</v>
+        <v>0.05390381250635453</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.02981613596453</v>
+        <v>1.168375666666667</v>
       </c>
       <c r="N8">
-        <v>1.02981613596453</v>
+        <v>3.505127</v>
       </c>
       <c r="O8">
-        <v>0.06826277232603824</v>
+        <v>0.07232491018701337</v>
       </c>
       <c r="P8">
-        <v>0.06826277232603824</v>
+        <v>0.09665088552303537</v>
       </c>
       <c r="Q8">
-        <v>1.171932782495776</v>
+        <v>0.1581634034552222</v>
       </c>
       <c r="R8">
-        <v>1.171932782495776</v>
+        <v>1.423470631097</v>
       </c>
       <c r="S8">
-        <v>0.04092958398865981</v>
+        <v>0.003117098927384323</v>
       </c>
       <c r="T8">
-        <v>0.04092958398865981</v>
+        <v>0.005209851211806834</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>1.13800196129005</v>
+        <v>0.1353703333333333</v>
       </c>
       <c r="H9">
-        <v>1.13800196129005</v>
+        <v>0.406111</v>
       </c>
       <c r="I9">
-        <v>0.599588657096594</v>
+        <v>0.04309855234281408</v>
       </c>
       <c r="J9">
-        <v>0.599588657096594</v>
+        <v>0.05390381250635453</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.549410622398558</v>
+        <v>0.6422343333333334</v>
       </c>
       <c r="N9">
-        <v>0.549410622398558</v>
+        <v>1.926703</v>
       </c>
       <c r="O9">
-        <v>0.03641843521433373</v>
+        <v>0.03975565548182683</v>
       </c>
       <c r="P9">
-        <v>0.03641843521433373</v>
+        <v>0.05312719085211144</v>
       </c>
       <c r="Q9">
-        <v>0.6252303658431461</v>
+        <v>0.08693947578144445</v>
       </c>
       <c r="R9">
-        <v>0.6252303658431461</v>
+        <v>0.7824552820330001</v>
       </c>
       <c r="S9">
-        <v>0.02183608066372167</v>
+        <v>0.001713411198706397</v>
       </c>
       <c r="T9">
-        <v>0.02183608066372167</v>
+        <v>0.002863758134681529</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>1.13800196129005</v>
+        <v>0.1353703333333333</v>
       </c>
       <c r="H10">
-        <v>1.13800196129005</v>
+        <v>0.406111</v>
       </c>
       <c r="I10">
-        <v>0.599588657096594</v>
+        <v>0.04309855234281408</v>
       </c>
       <c r="J10">
-        <v>0.599588657096594</v>
+        <v>0.05390381250635453</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8322439677197691</v>
+        <v>0.8924576666666667</v>
       </c>
       <c r="N10">
-        <v>0.8322439677197691</v>
+        <v>2.677373</v>
       </c>
       <c r="O10">
-        <v>0.05516643069004122</v>
+        <v>0.05524500589055249</v>
       </c>
       <c r="P10">
-        <v>0.05516643069004122</v>
+        <v>0.07382627543180768</v>
       </c>
       <c r="Q10">
-        <v>0.9470952675369103</v>
+        <v>0.1208122918225556</v>
       </c>
       <c r="R10">
-        <v>0.9470952675369103</v>
+        <v>1.087310626403</v>
       </c>
       <c r="S10">
-        <v>0.03307716609425414</v>
+        <v>0.002380979778053049</v>
       </c>
       <c r="T10">
-        <v>0.03307716609425414</v>
+        <v>0.00397951770891865</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,991 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.1353703333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.406111</v>
+      </c>
+      <c r="I11">
+        <v>0.04309855234281408</v>
+      </c>
+      <c r="J11">
+        <v>0.05390381250635453</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>12.1977655</v>
+      </c>
+      <c r="N11">
+        <v>24.395531</v>
+      </c>
+      <c r="O11">
+        <v>0.7550673293176682</v>
+      </c>
+      <c r="P11">
+        <v>0.6726859466018379</v>
+      </c>
+      <c r="Q11">
+        <v>1.651215581656833</v>
+      </c>
+      <c r="R11">
+        <v>9.907293489940999</v>
+      </c>
+      <c r="S11">
+        <v>0.03254230881494636</v>
+      </c>
+      <c r="T11">
+        <v>0.03626033714128508</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.07713966666666668</v>
+      </c>
+      <c r="H12">
+        <v>0.231419</v>
+      </c>
+      <c r="I12">
+        <v>0.02455935417809833</v>
+      </c>
+      <c r="J12">
+        <v>0.0307166424608249</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.253707</v>
+      </c>
+      <c r="N12">
+        <v>3.761121</v>
+      </c>
+      <c r="O12">
+        <v>0.07760709912293902</v>
+      </c>
+      <c r="P12">
+        <v>0.1037097015912075</v>
+      </c>
+      <c r="Q12">
+        <v>0.09671054007766668</v>
+      </c>
+      <c r="R12">
+        <v>0.870394860699</v>
+      </c>
+      <c r="S12">
+        <v>0.001905980234095044</v>
+      </c>
+      <c r="T12">
+        <v>0.003185613823495963</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.07713966666666668</v>
+      </c>
+      <c r="H13">
+        <v>0.231419</v>
+      </c>
+      <c r="I13">
+        <v>0.02455935417809833</v>
+      </c>
+      <c r="J13">
+        <v>0.0307166424608249</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.168375666666667</v>
+      </c>
+      <c r="N13">
+        <v>3.505127</v>
+      </c>
+      <c r="O13">
+        <v>0.07232491018701337</v>
+      </c>
+      <c r="P13">
+        <v>0.09665088552303537</v>
+      </c>
+      <c r="Q13">
+        <v>0.09012810946811113</v>
+      </c>
+      <c r="R13">
+        <v>0.8111529852130001</v>
+      </c>
+      <c r="S13">
+        <v>0.001776253085182014</v>
+      </c>
+      <c r="T13">
+        <v>0.002968790694133195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.07713966666666668</v>
+      </c>
+      <c r="H14">
+        <v>0.231419</v>
+      </c>
+      <c r="I14">
+        <v>0.02455935417809833</v>
+      </c>
+      <c r="J14">
+        <v>0.0307166424608249</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.6422343333333334</v>
+      </c>
+      <c r="N14">
+        <v>1.926703</v>
+      </c>
+      <c r="O14">
+        <v>0.03975565548182683</v>
+      </c>
+      <c r="P14">
+        <v>0.05312719085211144</v>
+      </c>
+      <c r="Q14">
+        <v>0.04954174239522223</v>
+      </c>
+      <c r="R14">
+        <v>0.445875681557</v>
+      </c>
+      <c r="S14">
+        <v>0.0009763732235606417</v>
+      </c>
+      <c r="T14">
+        <v>0.001631888926352314</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.07713966666666668</v>
+      </c>
+      <c r="H15">
+        <v>0.231419</v>
+      </c>
+      <c r="I15">
+        <v>0.02455935417809833</v>
+      </c>
+      <c r="J15">
+        <v>0.0307166424608249</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.8924576666666667</v>
+      </c>
+      <c r="N15">
+        <v>2.677373</v>
+      </c>
+      <c r="O15">
+        <v>0.05524500589055249</v>
+      </c>
+      <c r="P15">
+        <v>0.07382627543180768</v>
+      </c>
+      <c r="Q15">
+        <v>0.06884388692077779</v>
+      </c>
+      <c r="R15">
+        <v>0.6195949822870001</v>
+      </c>
+      <c r="S15">
+        <v>0.001356781666237207</v>
+      </c>
+      <c r="T15">
+        <v>0.002267695306653218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.07713966666666668</v>
+      </c>
+      <c r="H16">
+        <v>0.231419</v>
+      </c>
+      <c r="I16">
+        <v>0.02455935417809833</v>
+      </c>
+      <c r="J16">
+        <v>0.0307166424608249</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>12.1977655</v>
+      </c>
+      <c r="N16">
+        <v>24.395531</v>
+      </c>
+      <c r="O16">
+        <v>0.7550673293176682</v>
+      </c>
+      <c r="P16">
+        <v>0.6726859466018379</v>
+      </c>
+      <c r="Q16">
+        <v>0.9409315647481667</v>
+      </c>
+      <c r="R16">
+        <v>5.645589388489</v>
+      </c>
+      <c r="S16">
+        <v>0.01854396596902342</v>
+      </c>
+      <c r="T16">
+        <v>0.0206626537101902</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.06998366666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.209951</v>
+      </c>
+      <c r="I17">
+        <v>0.02228106149039587</v>
+      </c>
+      <c r="J17">
+        <v>0.02786715784482971</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.253707</v>
+      </c>
+      <c r="N17">
+        <v>3.761121</v>
+      </c>
+      <c r="O17">
+        <v>0.07760709912293902</v>
+      </c>
+      <c r="P17">
+        <v>0.1037097015912075</v>
+      </c>
+      <c r="Q17">
+        <v>0.08773901278566666</v>
+      </c>
+      <c r="R17">
+        <v>0.7896511150709999</v>
+      </c>
+      <c r="S17">
+        <v>0.001729168547649452</v>
+      </c>
+      <c r="T17">
+        <v>0.002890094624282366</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.13800196129005</v>
-      </c>
-      <c r="H11">
-        <v>1.13800196129005</v>
-      </c>
-      <c r="I11">
-        <v>0.599588657096594</v>
-      </c>
-      <c r="J11">
-        <v>0.599588657096594</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>12.1146923945513</v>
-      </c>
-      <c r="N11">
-        <v>12.1146923945513</v>
-      </c>
-      <c r="O11">
-        <v>0.8030389696260558</v>
-      </c>
-      <c r="P11">
-        <v>0.8030389696260558</v>
-      </c>
-      <c r="Q11">
-        <v>13.78654370542503</v>
-      </c>
-      <c r="R11">
-        <v>13.78654370542503</v>
-      </c>
-      <c r="S11">
-        <v>0.4814930573943194</v>
-      </c>
-      <c r="T11">
-        <v>0.4814930573943194</v>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.06998366666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.209951</v>
+      </c>
+      <c r="I18">
+        <v>0.02228106149039587</v>
+      </c>
+      <c r="J18">
+        <v>0.02786715784482971</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.168375666666667</v>
+      </c>
+      <c r="N18">
+        <v>3.505127</v>
+      </c>
+      <c r="O18">
+        <v>0.07232491018701337</v>
+      </c>
+      <c r="P18">
+        <v>0.09665088552303537</v>
+      </c>
+      <c r="Q18">
+        <v>0.08176721319744444</v>
+      </c>
+      <c r="R18">
+        <v>0.7359049187769999</v>
+      </c>
+      <c r="S18">
+        <v>0.001611475771164204</v>
+      </c>
+      <c r="T18">
+        <v>0.002693385482712994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.06998366666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.209951</v>
+      </c>
+      <c r="I19">
+        <v>0.02228106149039587</v>
+      </c>
+      <c r="J19">
+        <v>0.02786715784482971</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.6422343333333334</v>
+      </c>
+      <c r="N19">
+        <v>1.926703</v>
+      </c>
+      <c r="O19">
+        <v>0.03975565548182683</v>
+      </c>
+      <c r="P19">
+        <v>0.05312719085211144</v>
+      </c>
+      <c r="Q19">
+        <v>0.04494591350588889</v>
+      </c>
+      <c r="R19">
+        <v>0.404513221553</v>
+      </c>
+      <c r="S19">
+        <v>0.0008857982043815772</v>
+      </c>
+      <c r="T19">
+        <v>0.001480503813328183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.06998366666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.209951</v>
+      </c>
+      <c r="I20">
+        <v>0.02228106149039587</v>
+      </c>
+      <c r="J20">
+        <v>0.02786715784482971</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.8924576666666667</v>
+      </c>
+      <c r="N20">
+        <v>2.677373</v>
+      </c>
+      <c r="O20">
+        <v>0.05524500589055249</v>
+      </c>
+      <c r="P20">
+        <v>0.07382627543180768</v>
+      </c>
+      <c r="Q20">
+        <v>0.06245745985811112</v>
+      </c>
+      <c r="R20">
+        <v>0.5621171387230001</v>
+      </c>
+      <c r="S20">
+        <v>0.001230917373284682</v>
+      </c>
+      <c r="T20">
+        <v>0.002057328470554059</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.06998366666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.209951</v>
+      </c>
+      <c r="I21">
+        <v>0.02228106149039587</v>
+      </c>
+      <c r="J21">
+        <v>0.02786715784482971</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>12.1977655</v>
+      </c>
+      <c r="N21">
+        <v>24.395531</v>
+      </c>
+      <c r="O21">
+        <v>0.7550673293176682</v>
+      </c>
+      <c r="P21">
+        <v>0.6726859466018379</v>
+      </c>
+      <c r="Q21">
+        <v>0.8536443548301667</v>
+      </c>
+      <c r="R21">
+        <v>5.121866128981</v>
+      </c>
+      <c r="S21">
+        <v>0.01682370159391595</v>
+      </c>
+      <c r="T21">
+        <v>0.01874584545395211</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.8888515</v>
+      </c>
+      <c r="H22">
+        <v>3.777703</v>
+      </c>
+      <c r="I22">
+        <v>0.6013634098107626</v>
+      </c>
+      <c r="J22">
+        <v>0.501421025819771</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.253707</v>
+      </c>
+      <c r="N22">
+        <v>3.761121</v>
+      </c>
+      <c r="O22">
+        <v>0.07760709912293902</v>
+      </c>
+      <c r="P22">
+        <v>0.1037097015912075</v>
+      </c>
+      <c r="Q22">
+        <v>2.3680663475105</v>
+      </c>
+      <c r="R22">
+        <v>14.208398085063</v>
+      </c>
+      <c r="S22">
+        <v>0.04667006975409246</v>
+      </c>
+      <c r="T22">
+        <v>0.05200222495932558</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.8888515</v>
+      </c>
+      <c r="H23">
+        <v>3.777703</v>
+      </c>
+      <c r="I23">
+        <v>0.6013634098107626</v>
+      </c>
+      <c r="J23">
+        <v>0.501421025819771</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.168375666666667</v>
+      </c>
+      <c r="N23">
+        <v>3.505127</v>
+      </c>
+      <c r="O23">
+        <v>0.07232491018701337</v>
+      </c>
+      <c r="P23">
+        <v>0.09665088552303537</v>
+      </c>
+      <c r="Q23">
+        <v>2.206888130546833</v>
+      </c>
+      <c r="R23">
+        <v>13.241328783281</v>
+      </c>
+      <c r="S23">
+        <v>0.04349355460431952</v>
+      </c>
+      <c r="T23">
+        <v>0.04846278616534965</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.8888515</v>
+      </c>
+      <c r="H24">
+        <v>3.777703</v>
+      </c>
+      <c r="I24">
+        <v>0.6013634098107626</v>
+      </c>
+      <c r="J24">
+        <v>0.501421025819771</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.6422343333333334</v>
+      </c>
+      <c r="N24">
+        <v>1.926703</v>
+      </c>
+      <c r="O24">
+        <v>0.03975565548182683</v>
+      </c>
+      <c r="P24">
+        <v>0.05312719085211144</v>
+      </c>
+      <c r="Q24">
+        <v>1.213085283868167</v>
+      </c>
+      <c r="R24">
+        <v>7.278511703208999</v>
+      </c>
+      <c r="S24">
+        <v>0.02390759653981332</v>
+      </c>
+      <c r="T24">
+        <v>0.02663909053598847</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.8888515</v>
+      </c>
+      <c r="H25">
+        <v>3.777703</v>
+      </c>
+      <c r="I25">
+        <v>0.6013634098107626</v>
+      </c>
+      <c r="J25">
+        <v>0.501421025819771</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.8924576666666667</v>
+      </c>
+      <c r="N25">
+        <v>2.677373</v>
+      </c>
+      <c r="O25">
+        <v>0.05524500589055249</v>
+      </c>
+      <c r="P25">
+        <v>0.07382627543180768</v>
+      </c>
+      <c r="Q25">
+        <v>1.685720002369833</v>
+      </c>
+      <c r="R25">
+        <v>10.114320014219</v>
+      </c>
+      <c r="S25">
+        <v>0.03322232511735831</v>
+      </c>
+      <c r="T25">
+        <v>0.03701804675946996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.8888515</v>
+      </c>
+      <c r="H26">
+        <v>3.777703</v>
+      </c>
+      <c r="I26">
+        <v>0.6013634098107626</v>
+      </c>
+      <c r="J26">
+        <v>0.501421025819771</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>12.1977655</v>
+      </c>
+      <c r="N26">
+        <v>24.395531</v>
+      </c>
+      <c r="O26">
+        <v>0.7550673293176682</v>
+      </c>
+      <c r="P26">
+        <v>0.6726859466018379</v>
+      </c>
+      <c r="Q26">
+        <v>23.03976766132325</v>
+      </c>
+      <c r="R26">
+        <v>92.15907064529299</v>
+      </c>
+      <c r="S26">
+        <v>0.4540698637951789</v>
+      </c>
+      <c r="T26">
+        <v>0.3372988773996373</v>
       </c>
     </row>
   </sheetData>
